--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/8_Antalya_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/8_Antalya_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{722958D0-916D-49FD-AF4A-3CE101CD441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0D22D99-1B9C-4509-A803-ADCB051E8251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{D99FD4FA-A121-42DA-8F92-1C7C04D240B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{BAA435CC-9C26-44AF-8EA4-5A5B899C7716}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -950,15 +950,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{8D534293-214D-4D75-A1FB-0AEF4C09E4AB}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A1C435F5-C224-4CA7-9B0E-6106FE8B4855}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{922A97E3-C654-4C6A-8F30-29E9BCCB895C}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F422E247-2644-4ECC-A025-83A9924BADC5}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{93A2CABF-A594-4C68-8CA8-D09995F646DA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{625544A6-6AB9-4EB3-AB7D-99F64CD5DF50}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{2BB03676-CA97-4501-BA23-11E7E7A6D962}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{FA298A70-B429-41DF-A76B-782FD9DECF33}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{57FACDA0-482F-4C00-A710-4B6D81E618EE}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C7CAFCDE-40AF-41D6-828B-94D472498BDA}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{461A3CAD-2448-4E83-92CC-F7D749737282}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{2EDCDBE5-C5BC-438E-9D3A-DD53D7D87C7F}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{AD396987-DE8C-4DB7-9BE4-472415AF9D44}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{02C27CCD-E30E-4D89-8EA9-6A5DB39BDAE6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{F45C54B9-720B-420B-9A06-28EEC92EF38B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{55603F43-68E3-492E-A3B5-5773F213359D}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{DF946E22-4B5D-4AC5-B837-76EA3CDD2616}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{198692C6-6BBB-4C1A-8396-FB36B0B2855F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE9867-0459-405F-A108-1915661DBF34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27DDF09-2A68-411C-AC63-5BF577210C7D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2647,18 +2647,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5488B40-887C-484A-845E-5475C5B12309}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA215160-2DFE-42C4-BC7A-830EECF5A1D1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A28A6FD4-FE3C-4CBC-8E8A-22FDFBA1E896}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{63134CC3-F59F-4233-B955-5220AA0080C0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{506FE92B-DB07-42A8-9E71-4F65C55FEB2D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EF54401D-A4E1-4EBC-B12C-364E325794B1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{83757C11-1906-4516-BAB0-BABB3B14D86B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DA36D95-A8ED-4DA5-B438-D4CA3F9CC420}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B2803B9-C58F-407B-AA2B-2182BC16B821}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29A6A255-DCB9-4AF6-9B7D-DF68C8E66C2D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09C557A0-A3D1-4576-B638-F5CD95EB154A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D251A777-D812-4EAB-829B-1601C8439EBE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{838A5D53-EDF2-4C76-A7FC-1BA3DA87EFC4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F228461-1561-4A25-9A1A-C4951E724917}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0FC25D3E-2D1C-4B90-946A-4FF8A6CDE8F9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EC4C87A5-7E47-4D6B-AC42-04DCEBD59262}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D996EA1-1B9F-4D7F-B0B4-976B9021103D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{12304883-7010-455C-8107-39EFB0EBF209}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6996144-8AB6-4BF7-A019-3FB1522B122F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF3B4CF9-D4DE-44BA-B472-232C12949DCA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5FB2793-F2CB-4AD3-A7A1-BCDF52DF614A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C55BB517-74F5-4C67-AC5A-8E4E6C7458EE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E27778C1-E2A4-4023-820F-333C0E3EEC0E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{757566A3-E006-49BE-8C6D-D6AEC6433FCD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2671,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D2FD15-23ED-4E06-AB52-0AFFA870F985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241553D2-AEDE-4C03-AE80-AF11D267FCD6}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3981,18 +3981,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D190527-EE78-4529-93B1-21584231B7C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5009EAAA-0DAA-4288-82B7-35C61FB50828}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5DAD328F-69E4-49BC-AEB7-E4D005182420}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1016521E-207F-4307-933D-648E195F00B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8783C129-8F22-4D5B-B400-DD03FB3EA5CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B388FA5-12F4-494E-97BC-D77C8DFA0CD4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74D4FEDB-6FA9-4D01-A5FB-67B5C5B9672E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85483EB3-F309-49AD-81BE-36ED9147A1BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CB0DEB8A-E36E-402F-8022-FDCF5E9BFA2C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6F3687F-DCF4-4265-AA58-EC0F4C6C6270}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A13DD50-CF64-4221-8CE4-A9487259F327}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E686B39-9093-4458-A0BD-B9D90BC2503A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C400395B-CEA4-4DFE-A1B3-F33D6818353D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CFA4BD27-5546-45A8-A7BF-C4682D500826}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{685EA53E-49D7-4C60-808E-D1213ACD3B42}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{62B6FA39-757E-431E-96F7-2C21A9FB9230}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0DBC9DD-6882-4325-B97E-1279022A57B5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D5F393B-1722-425A-80C0-A67B6EA0D342}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AED211E-C2AD-469B-B6CE-F460DD576ECB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F07F8AF7-B642-40F9-8DD3-E2AB845311C8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4239019-F292-4628-AC6E-235D33CD27D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3B36C6D-1167-4137-9B05-2A14F88991DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8AB41918-979F-4210-8166-17B141FBBDE8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{033A0836-5032-4413-AEAF-D2169D3CC609}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4005,7 +4005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DBC2F7-FB82-4250-A4AD-55189F078DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A07C3C-8941-4E16-B090-0B47CA6A571C}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5315,18 +5315,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{916F11CD-46A6-4278-A814-AFBD1D7EDA2C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFFC3A11-DFEB-495A-A06D-39C534EDAAAF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3E0CFEE6-FD52-4CB0-BF11-36F8D2829FCB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{943BD6E9-E86E-473A-BF43-2BB35874FA8B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A64CA13-BA55-4164-A1E5-971DD907C9D7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9B5BC00-DC7E-44AC-A098-D667CAFC05EF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E297CC36-23EA-4D83-A3B0-575D4481CFBE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCFF0E8D-273D-47B4-9FC6-8FAA7D973AC3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{66CAAA57-DB5E-4930-B9CD-B47FCE86E009}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{927849CD-EFA8-46ED-8514-828AD0BB5261}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94CE3CF2-9B2D-48EB-A401-40FC83D4831C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{458972DE-6B33-41A5-B9FA-B92FEFD5C17C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05173C3F-DC42-4B76-BB5E-32DAF58C887F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{590151A8-13FB-4DF0-9EC2-A2F722248D4B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FE8B77FE-CDDC-4C36-BCB8-229A47BE6589}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B3CE9F14-3CC9-4A2A-9C26-540ADCF4C7CC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C820DA39-0955-408F-A330-DB244208B6FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EEBF71A4-1BBD-41AF-9C35-0AA5577F5CF5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7591BFC3-A444-4E96-A005-A1A98DEA8913}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16E4D9DE-742E-4FA6-970D-73F25D5C529F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04907374-BA6B-4897-B784-017272FCB729}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D47C4CA-6551-4F8F-BD96-1B6A7EE1B0BD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F35381D-77EA-4FFA-9F45-15ED9674E44D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1D9016F-17D8-4756-938E-F08390C32C70}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5339,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C76480-DF71-42D2-A5DB-07B6023E5320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEDF874-8D16-466F-B6A5-181489631C2D}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6649,18 +6649,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B846708B-996E-4F4F-8EB9-49E9C789A407}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1289BB49-6C51-4F63-B7E5-1E0FE53CCDC2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5717457C-129E-4B95-BD73-BBC7C7EBF968}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{85C5B3FD-96B4-4F0A-88AE-05A6DC7B1D8A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{030DEC61-0EA4-47C4-9ADB-5B17DD52D00F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C15D009-D568-458A-8A39-7F37251D38C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72BB0E92-4603-4FD7-833B-1B2F832BDD14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D4C88C2-6483-4B66-842D-61EF137BA7F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0E50599-EDBF-4836-88FE-19BF9F9105CC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2AA68FFD-497E-4D45-89C3-FFF062980333}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68960AC5-7591-4182-8A98-860FA93BF30E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A4C4508-D1C0-4BFA-8D55-873D04612F18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0AC43A4A-BDAD-4CA0-B331-C5AB539E9CEB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{806B0AB9-6281-4AC5-B8E7-EA5C14183FF8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C61B3B1D-FB07-4790-9357-FB75FC2085E2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD1AC35A-6A16-495C-AF45-A4BD45D80E17}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{568EB390-0898-4269-9996-C8FB32010D07}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D5376CF7-91FA-42E4-A9ED-DB84115313F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0040A936-DB83-4941-AB50-50891C92C07F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B771C98C-9AA0-4BD1-BF6A-ED1390A856BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{829FE822-EDFB-46D4-B718-5F23C30400F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3FE61A17-5426-4050-81AB-05E234E51186}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2061527D-E160-4B84-B63D-AB1ACFB0A896}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A362FCE-72B6-450C-BDFD-4C115058B017}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6673,7 +6673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F07DC9-2A84-439D-A39E-94AA50074ED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A104F7-3999-4755-A12E-435AE4583BC3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7994,18 +7994,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0D8FF8F-FFE5-4CA4-87C4-69D7F49B8A6E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1AE3F5D-816D-4E8F-8598-AAB3B4CB0A7C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{277F99D2-EC9B-41C0-AFB8-1F767F02276D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{74772215-75DB-4C3A-880C-38F32D098FCD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C079452D-C292-446E-8DC2-159A281C1711}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{23377635-18A8-46AD-B04B-DBF8123F40B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A3784E9E-557A-476D-BBED-53FD8E24A8CA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{102E7B87-456C-4540-9D4C-4B3C051ED8D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36818BD9-4AE6-4812-91F5-ED4D018B60C5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0133FE3F-61BF-4BDB-B3A2-559BC5A85E2D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{470EEECD-ABBB-4915-A190-608996F27FC3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{623BA0D3-4470-4498-B8C4-60EA8CFD7937}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{977B1CBC-6D99-4FCC-AD46-720E7C66748B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C07B5103-40FC-4982-AC2E-A8F418951849}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9487DC28-9BD2-4343-AA1C-A9E6007BA778}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9AA64A52-8938-4764-988F-AC43D643BF55}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4376DE2-D1FE-41F7-ADCB-C82619A983EB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{585D23C3-2AA0-4E33-AF95-EEC93A6D826E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{542ECBD9-1467-44E6-B7F6-178078F7B59E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56831153-C616-431D-B030-77D943F39C12}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8996937A-5BCB-4FCA-BAF9-7855F9F2D18C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B3E16EA2-1C95-4E5B-AC0B-9D9D24D9F858}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A569F9DE-0779-4498-BAFD-A31407AD0478}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{858E3C02-2690-4CC9-A916-E621BC1B1C77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8018,7 +8018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40275D1-1B36-4566-9CD6-15DF03BEA9F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E212A41-4D79-4B09-B9E1-6D31B2E7CFB1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9341,18 +9341,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{186AFB34-FC3E-4E33-B4DE-1EA23A5EECE9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F60B67AC-72D3-495A-AC2A-DC405987C98D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5F7FC3B5-93DF-4EC0-88A5-8F6CD7230463}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B5C14678-2EB9-4A16-ABDD-737D24C34978}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D5AA4486-BFBF-4094-9883-3CE00D0E8A83}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43B4570C-08D5-4D98-BE6A-250C1F8798FF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E21535E0-69DA-405C-989F-A0EE33AE3E42}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0ED8C05E-7A6E-4B9B-BF19-FE8942DEA218}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AF4D38F0-8827-4946-B6F4-0939D214F9EA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F72372C-B3AB-412E-8764-BFC7BEB8FCC5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA18AA7D-700F-4B00-84DD-23D60631310E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE781429-2E69-4219-8C6C-48FC1158456A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75822D73-CA6E-466F-BD74-CEA86B0D6B1C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{689EBB01-836B-4FE1-98A8-E19F336B454C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ED0EDAF2-9B2F-4116-ABA0-4DA9CAD55AB7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C3ACC5DA-282C-45FA-9399-FEAE866F147F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48F26081-AC2A-4E38-9DC4-AFE78F6CC24B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B749B9E-FBBC-4BA8-96E3-4A46E423310E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62EAA34B-9375-4CC5-83BF-2BCE19AA7A2B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D873EA3C-ED86-4630-AD34-BFFECC5D58D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBD46576-88F1-45ED-9756-1B0F345EC29C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B2DF25E-9C35-46AF-9628-8CDCB4720DDE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F533748-1150-44C9-A6C9-4DE10A1CA02A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8434E963-DEB8-4F1D-A89C-2982EEC24D91}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9365,7 +9365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F628F61B-C55E-4D7E-9397-CE52C84A7482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499151F3-6025-47DF-8F4B-9DD8E599DDA0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10680,18 +10680,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F9E80ED-9F72-42D2-A1CB-FD9FEAAFC45E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D882F0F-35E6-49BD-928D-1682EBA06ECE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ADB6CCF5-A8E1-479E-B303-EFFA9DA301F0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5A52D525-6731-43B0-A1AF-1C8FFAA1A92B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97810A7A-A3AE-4FC7-A4C1-6CDDB2DFD615}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70D74620-1295-411C-9C6E-9FB77277D4F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5E1A8B2-21C3-4972-8FA6-3D2D597451CA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6691E10-CFDC-4B49-A9E7-E371BC23E4F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48B79DD2-E257-4432-9281-AD0FBFEAF2DA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D87C3FBD-5840-4E42-98EA-8923FD0D0B75}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{915B182B-7572-486F-9774-F2F366DB9FFA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C00C62B8-2A1D-4E8C-B002-3E15D3FAB043}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4C02415-8439-499B-9F46-07B0ECBECFCA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87B254B0-45A2-450D-8EF6-C67993813B08}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FDBAA5A9-DC95-4239-866A-651C8D35BE70}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3D242D85-B91F-4B38-8C0F-D78AABA20851}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4BDEBF6-C090-47B2-9CC8-A4025B0B0E8F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{534F56E2-9082-4DC9-A4FA-62815480757B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{135C1406-AFAE-494C-9E80-73034203D09C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9EDD487-0B1D-49A1-B679-669FD4011409}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F27A765F-ABC4-433D-8049-42E45891DCA3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EEE4FB78-132C-49B1-BEA5-0DD1F057115E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{460B8832-2C9C-4729-A800-353EE103317B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2620BF0-36A5-4A04-891B-8C472710C136}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10704,7 +10704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665FF3E7-6B33-400C-AD92-A14E24C6A361}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7071531-A9C5-4E85-8D32-CD473EF671A0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12017,18 +12017,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB6D241F-6E78-4F81-BCFD-693DE0E8CB88}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C102BF43-2038-4C0C-8131-B02A71B174F2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CDCDB5A7-D4CC-4277-BB21-F3E32893799D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{93B3ABCB-158C-4134-9E3F-3FB79D68A8BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE76470B-AEA3-4929-9274-9D16AA2262A9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F3B023E-F4A5-4ACD-9FCF-60CADE24006D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFD7E319-ABA3-4D65-AA16-842180343620}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B826B119-B64A-42AF-B481-EF940A567613}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C5D84DC-F67C-4376-863E-DB739DB00A1F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F08D3DA4-0896-490B-BDBC-DE23E333FAE1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24532618-B74C-40E9-B38C-315B78EA5D12}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B695582-5323-4225-AE84-D26CBA4803E7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC8C46E5-DD91-45B7-891B-451F51A46809}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41FA5F5A-DF4B-4E39-8F9A-565840BAB785}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{01D8C50E-5F5C-47FB-B005-94D376614257}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AB4DD7F4-F9A4-470E-8DA8-4E872318A8A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5A6EE11-B5A7-45DA-9EBC-08D280DF082A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAFBBAD9-99BB-4176-A878-3B1E89B8C3CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E2A42E0D-BCD7-43B6-AABB-0AFAC5817A98}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B5631AD-7E34-4CE5-944A-B2E5B1FA2537}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6FE59DC-7B03-4217-AA57-8895F7C95BB5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{75CAD229-BF10-4926-AF1D-D8FD9EF7859C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD3EA55C-FFBA-4CD5-B2DE-97D4F3ECFE14}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22D13EC9-86D6-4A4F-B7AB-BA0970CB144D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12041,7 +12041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A5E308-1F55-4259-B74B-8963494BF4E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4532E908-4D10-4618-9A0B-2A14FE745B9F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13354,18 +13354,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16C9048D-462D-47D2-A15F-BA1CEEA0C937}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95D63B59-0247-4115-827E-4A8A71615DD2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F776339F-DF08-4E7A-9FB2-8B8E01E9DEA0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F6C0A006-9F69-4673-B4DF-262E827CA096}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C602B585-AA6C-4D43-AE40-28D5871FF338}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1AA4A1BD-93BD-4683-9AC2-A25BFF6EA5EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4DCEFDE-B778-4BC8-B1BD-3EB1AFF8D65D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{400FCD5C-4734-4863-B443-85C1EE0BE943}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87165A71-A693-4358-8DC6-28C5BDD6F793}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B2F4CC48-DB2E-4E44-9F0B-5C23E65D35B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32BB3CBC-D767-4A44-9FE0-8165CE3CECF0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A43DD276-33E6-4D1C-AF3F-2956BB1DDAC8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA7D7CA9-5CE4-45C7-990F-77D2469FD95A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{592BE174-00C7-4F76-97FD-9AFAF8677917}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F3C18D5C-80BC-4C62-8B4B-E5B0A2D49C32}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{99494945-E897-4AC5-AE52-72AFC5F228E7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD1E7815-77B5-4BC0-8056-4BE8F22D11DF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3CC8265C-D975-4251-A79F-FBB777ACACF8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{774DD642-C3EC-4C7A-9618-70F2114A52EA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{329689D9-BFC2-431E-B1B2-086CDC5CF0FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A95BC891-E66F-4D7E-BC7B-6D45C6D95811}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{560FA47F-3F3D-4110-8254-7B190FC37186}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E1AC99A-F17C-470D-BD3D-AA7C6D0F5EDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E1AB6196-B1C6-493C-B840-2C379704BDE8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13378,7 +13378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA13ADB-33ED-44A6-99E2-A464353FE84F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5721C8F0-8CDF-4947-A698-3BB483C0A0E5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14691,18 +14691,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E811EDE9-0D45-49D6-8BAE-EDB4BD4CE41E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B83B97FA-1D52-47C9-8770-0D6D63164333}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{091C6200-7C13-4F22-AC1E-CEC3DA325633}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B667964F-664D-49F5-A37C-D29A6E5D1B9A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B40FB09-0B88-4017-BE2B-90176BA6628A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE354ED0-B503-4968-8FF0-E6A61A41DE23}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51EDCD1E-6C7F-48A5-A739-4E602105BD42}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7C06E1A-F51B-4A09-9DC4-E8A651457648}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{785049D3-AC4B-478F-86D2-80A4FF02B1A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C13AC2BF-E7B8-4C2A-A222-3A4E74A149FC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{875131E7-3993-4CC0-A265-5D779793CF03}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C29A7A5C-40F1-4457-9CC8-E863E23B70CD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70CE0B20-35C6-48D1-83D3-4666353C8706}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCC69EA0-FC90-42CA-9B51-786C11A02DEC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6C5E0003-198B-42AE-809A-E89228F0072A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C593C705-1871-4080-8E5A-6BF56C051157}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDAA9329-F2A6-42BF-851C-40F5AAFDE280}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36C7D703-C820-4F38-AA20-0A87E48BB52B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88C3D6CE-EAF5-49D0-9E55-B493F76397B9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62E23360-782E-4FCD-951F-E78231B1BA91}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8B3AC5D-768E-4C2C-860C-3A13D92EF291}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FDB0F2AD-FFFA-4334-8C24-BCA33521C973}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BCAAAFD0-8C89-4F94-9539-B846133D33DC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DFBB91E7-BF58-432C-B700-7B6C2617F332}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14715,7 +14715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D5763A-805B-4F80-B42A-EEEB331D222E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59520D2D-1EC3-4BBE-89D2-08A89729C3AB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16030,18 +16030,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B7B87AE-455B-475F-B4D8-BDD1A2ECDDDB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{157A58C6-7320-4139-ACA7-77B4BEB45E24}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{992DFF70-F09B-485F-B2A8-89532D985A6A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ACB7D50D-8B5F-4CCF-8443-2EC9239F03B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96688078-616A-4D59-95C5-951115E4DDD7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA89580A-7635-46D2-A8F7-27D62AA219BB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E27E3573-5C32-4EEB-8BCA-7C46B305E99D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9DBDDCE-33DD-4D67-8591-75F9F22F54B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D9463C5-5BC4-4E32-8B9F-3E140D9805D5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{01E8C2E5-7044-44D5-B7CE-326A392FDFA8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C47C2745-00B0-4BD6-9648-13869E2DAB06}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8577A29-D6A2-4C2A-AD74-5B1DC68CBE20}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12BC7439-D5FE-4163-A557-962AB4DFA945}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C0A5FFB-7B14-47FF-B332-417BE62D68F4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F0A52A70-373E-4FD1-9914-C30F907B675A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4953DF3A-A505-4F4A-9BCE-77245A88A936}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{81C76D13-61BF-4098-BA32-67F1AD87B3BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D3BAA351-FAC7-4305-9082-E10FADB6938D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED66D932-4220-41A3-A2CF-7633951A4EE6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{10285D2D-519B-459D-8E3D-C39D2EC6E754}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E62ED04-C72B-49C1-A638-9D215DFD73D2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{87421BF4-1366-4795-954E-06F4FAE0EFDC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06B689D6-16AF-4E4A-BAA5-9AEB7305CF52}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5323976F-DF56-49D7-A742-993790845D4A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16054,7 +16054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF47D74-301F-489E-AFAE-257388A2E248}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECEBBAF-1A82-459E-9322-323889B9865D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17369,18 +17369,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E9D5E57-EC08-417B-AA67-5DC7ED7D21B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{755292F4-FD59-4596-9CEA-7E93DAB1572B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{520EF144-DCCF-401B-8EB6-78F68D07D290}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E6B06A6B-8FD0-4DE3-812A-D88C88CCFE25}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{02283A47-F946-401E-A8D4-74EE33CE5782}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EDFBA756-87F8-470B-98CB-A0134E7CD335}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96F0E9DE-51B3-472C-B3CD-A9D2143F888C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B002BD9C-9CA6-4722-A663-B5AC418DDF17}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{202CB219-588A-4AFE-8A9B-011A3F7A9887}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{790458D1-FD15-4583-AC4A-29B1AFC29D04}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D225D2E-BFA7-493D-8630-5C8E96628ADE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{602E53F9-C650-4933-BB02-23C9A3B30261}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B423800-420B-4680-9A4D-A2AC9BBD4A97}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86B49A1B-6370-4EAD-98EF-846E51ED42A2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8D38A64F-4D81-4EED-9CD9-53FB33E02A64}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F3CAEF9F-6074-463F-BBF3-7B0853B80E87}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{777549B4-32BF-41A3-A81B-600DF4858A8F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E087D72-D4B0-4BB5-8304-66E2B430243C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D019E403-3945-4570-9703-A20C2FB52130}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFD7AD42-6BDB-4A34-93DB-C5B0AB229226}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1122E852-928F-40B5-9CE8-9024BA38808F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3553FB3B-49F1-4B93-BD67-BC64A668E913}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A33E3E3-0567-4511-923E-68D930C7C7B0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{361D42B0-633E-474F-BCD8-15A76219623A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
